--- a/Libraries/Vehicle/Body/sm_car_data_Body1Axle.xlsx
+++ b/Libraries/Vehicle/Body/sm_car_data_Body1Axle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C755DA7-5CF0-4F8B-B05C-6981F9C99858}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A860DB3-4564-4D79-A023-05A779899251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10152" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Trailer_Elula" sheetId="2" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>sAxleF</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>sHitch</t>
   </si>
   <si>
-    <t>Body_1Axle</t>
-  </si>
-  <si>
     <t>Trailer_Elula</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>Trailer_Elula_Unstable</t>
+  </si>
+  <si>
+    <t>sAxle1</t>
+  </si>
+  <si>
+    <t>Body_Axle1</t>
   </si>
 </sst>
 </file>
@@ -545,21 +545,21 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -604,10 +604,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -618,18 +618,18 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
@@ -642,14 +642,14 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="15">
         <v>1.5</v>
@@ -662,14 +662,14 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="16">
         <v>0.3</v>
@@ -683,14 +683,14 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="15">
         <v>0.3</v>
@@ -703,17 +703,17 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -722,14 +722,14 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -738,17 +738,17 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
       </c>
       <c r="F11" s="16">
         <v>100</v>
@@ -760,10 +760,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14" s="13"/>
     </row>
   </sheetData>
@@ -784,21 +784,21 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -818,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -832,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -843,10 +843,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -857,18 +857,18 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
@@ -881,14 +881,14 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="15">
         <v>1.5</v>
@@ -901,14 +901,14 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="16">
         <v>-0.9</v>
@@ -922,14 +922,14 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="15">
         <v>0.3</v>
@@ -942,17 +942,17 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -961,14 +961,14 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -977,17 +977,17 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
       </c>
       <c r="F11" s="16">
         <v>100</v>
@@ -999,10 +999,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14" s="13"/>
     </row>
   </sheetData>
@@ -1023,21 +1023,21 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1082,10 +1082,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1096,18 +1096,18 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
@@ -1120,14 +1120,14 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="15">
         <v>1.86478113192454</v>
@@ -1140,14 +1140,14 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="16">
         <v>0.3</v>
@@ -1161,14 +1161,14 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="15">
         <v>0.3</v>
@@ -1181,17 +1181,17 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1200,17 +1200,17 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" s="13"/>
     </row>
   </sheetData>

--- a/Libraries/Vehicle/Body/sm_car_data_Body1Axle.xlsx
+++ b/Libraries/Vehicle/Body/sm_car_data_Body1Axle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A860DB3-4564-4D79-A023-05A779899251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F02E86-CE03-4173-A510-B2CE8F0AF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Trailer_Elula" sheetId="2" r:id="rId1"/>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -184,19 +184,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -206,13 +203,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -239,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,9 +534,9 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -550,7 +546,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -559,7 +555,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -579,192 +575,178 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>1.5</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <v>0.35</v>
       </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>0.3</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
         <v>0.8</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>0.3</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
         <v>0.35</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
         <v>1.869</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
         <v>350</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>100</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>400</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,7 +759,232 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
+        <v>1.869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14">
+        <v>100</v>
+      </c>
+      <c r="G11" s="14">
+        <v>400</v>
+      </c>
+      <c r="H11" s="14">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6AA7AE-D524-4DA8-88E7-6C57C2DBC894}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -789,7 +996,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -798,7 +1005,7 @@
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -818,415 +1025,163 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="F6" s="13">
+        <v>1.86478113192454</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.39269999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
         <v>0.35</v>
       </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="16">
-        <v>-0.9</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.35</v>
-      </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <v>1.869</v>
-      </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <v>350</v>
-      </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="16">
-        <v>100</v>
-      </c>
-      <c r="G11" s="16">
-        <v>400</v>
-      </c>
-      <c r="H11" s="16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6AA7AE-D524-4DA8-88E7-6C57C2DBC894}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1.86478113192454</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.39269999999999999</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.35</v>
-      </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="13"/>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
